--- a/Template Paramètres Modèle V2.0.xlsx
+++ b/Template Paramètres Modèle V2.0.xlsx
@@ -152,7 +152,7 @@
     <t>en médecine</t>
   </si>
   <si>
-    <t>en réa/soins intecsifs</t>
+    <t>en réa/soins intesifs</t>
   </si>
 </sst>
 </file>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -397,6 +397,9 @@
     </xf>
     <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -27145,8 +27148,8 @@
       <c r="A4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17">
-        <v>5.0</v>
+      <c r="B4" s="31">
+        <v>8.0</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>37</v>
@@ -33430,7 +33433,7 @@
       <c r="B2" s="26">
         <v>1.0</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="32">
         <v>0.1</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -33461,10 +33464,10 @@
       <c r="A3" s="18">
         <v>44809.0</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="32">
         <v>1.0</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="32">
         <v>0.1</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -33498,7 +33501,7 @@
       <c r="B4" s="26">
         <v>1.0</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="32">
         <v>0.1</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -33529,10 +33532,10 @@
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>1.0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>0.1</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -33563,10 +33566,10 @@
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>1.0</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>0.1</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -33597,10 +33600,10 @@
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>1.0</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="32">
         <v>0.1</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -33631,10 +33634,10 @@
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="32">
         <v>1.0</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="32">
         <v>0.1</v>
       </c>
       <c r="D8" s="16" t="s">
